--- a/evaluation/Lint&ConfFix&XFix output.xlsx
+++ b/evaluation/Lint&ConfFix&XFix output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huanghuaxun/Documents/GitHub/ConfFix/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF061DD2-A662-DD44-86ED-213789AA566E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A637E819-67CE-3C4C-9581-1E3FC4C5BCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,12 +340,6 @@
     <t>app:srcCompat="@drawable/mozac_ic_link"</t>
   </si>
   <si>
-    <t>simply removing android:src</t>
-  </si>
-  <si>
-    <t>simply removing android:src, use android:drawableLeft, or use android:drawableTop</t>
-  </si>
-  <si>
     <t>fenix__7707106_component_collection_creation</t>
   </si>
   <si>
@@ -460,6 +454,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -472,6 +468,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Warning</t>
     </r>
@@ -484,6 +482,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Successfully-repaired</t>
     </r>
@@ -495,6 +495,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                 android:id="@+id/errorSummary"
@@ -509,6 +511,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -517,6 +521,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                 android:layout_width="wrap_content"
@@ -535,6 +541,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
 					style="@style/TextAppearance.MaterialComponents.Body1"
@@ -551,6 +559,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -559,6 +569,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
  					android:drawablePadding="8dp" /&gt;</t>
@@ -571,6 +583,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvBimiHint"
@@ -588,6 +602,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -596,6 +612,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_advanced_privacy_risk"
@@ -612,6 +630,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvBimiVerified"
@@ -629,6 +649,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -637,6 +659,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_advanced_bimi_verified"
@@ -653,6 +677,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvGravatarPrivacy"
@@ -670,6 +696,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -678,6 +706,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_privacy_policy"
@@ -694,6 +724,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvLibravatarPrivacy"
@@ -711,6 +743,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -719,6 +753,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_privacy_policy"
@@ -735,6 +771,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvFaviconsHint"
@@ -752,6 +790,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -760,6 +800,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_advanced_privacy_risk"
@@ -776,6 +818,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvAdvanced"
@@ -791,6 +835,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -799,6 +845,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:gravity="center"
@@ -818,6 +866,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvAuthSome"
@@ -835,6 +885,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -843,6 +895,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_advanced_authentication_some"
@@ -859,6 +913,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvAuthAll"
@@ -876,6 +932,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -884,6 +942,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_advanced_authentication_all"
@@ -900,6 +960,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvLanguageToolPrivacy"
@@ -916,6 +978,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -924,6 +988,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_privacy_policy"
@@ -940,6 +1006,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvDeepLPrivacy"
@@ -956,6 +1024,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -964,6 +1034,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_privacy_policy"
@@ -980,6 +1052,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvVirusTotalPrivacy"
@@ -996,6 +1070,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1004,6 +1080,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_privacy_policy"
@@ -1020,6 +1098,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvSdcard"
@@ -1036,6 +1116,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1044,6 +1126,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_advanced_sdcard"
@@ -1060,6 +1144,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvCaptionAdvanced"
@@ -1075,6 +1161,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1083,6 +1171,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:gravity="center"
@@ -1102,6 +1192,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvExperimentsHint"
@@ -1118,6 +1210,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1126,6 +1220,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_advanced_experiments_hint"
@@ -1142,6 +1238,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvCaptionDebug"
@@ -1158,6 +1256,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1166,6 +1266,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:gravity="center"
@@ -1184,6 +1286,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvPrivacy"
@@ -1200,6 +1304,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1208,6 +1314,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_privacy_policy"
@@ -1225,6 +1333,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvSupport"
@@ -1241,6 +1351,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1249,6 +1361,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/menu_faq"
@@ -1266,6 +1380,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvTutorials"
@@ -1283,6 +1399,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1291,6 +1409,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_setup_wizard_tutorials"
@@ -1309,6 +1429,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvQuickNew"
@@ -1325,6 +1447,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1333,6 +1457,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_setup_wizard_new"
@@ -1351,6 +1477,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                             android:id="@+id/tvExchangeSupport"
@@ -1367,6 +1495,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1375,6 +1505,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                             android:text="@string/title_setup_exchange_support"
@@ -1392,6 +1524,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                             android:id="@+id/tvIdentityWhat"
@@ -1408,6 +1542,8 @@
         <sz val="10"/>
         <color rgb="FFE74025"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1416,6 +1552,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                             android:text="@string/title_setup_identity_what"
@@ -1433,6 +1571,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvFree"
@@ -1449,6 +1589,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1457,6 +1599,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_setup_free"
@@ -1474,6 +1618,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvPermissionsWhy"
@@ -1490,6 +1636,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1498,6 +1646,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_setup_permission_why"
@@ -1514,6 +1664,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvImportContacts"
@@ -1530,6 +1682,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1538,6 +1692,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_setup_permission_import_contacts"
@@ -1554,6 +1710,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvDozeWhy"
@@ -1570,6 +1728,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1578,6 +1738,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_setup_doze_why"
@@ -1594,6 +1756,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvBatteryUsage"
@@ -1610,6 +1774,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1618,6 +1784,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_setup_doze_battery"
@@ -1634,6 +1802,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">&lt;TextView
                     android:id="@+id/tvSyncStopped"
@@ -1650,6 +1820,8 @@
         <sz val="10"/>
         <color rgb="FFDE3C36"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(Use app:drawableTint instead of android:drawableTint)</t>
     </r>
@@ -1658,6 +1830,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
                     android:text="@string/title_setup_doze_stopped"
@@ -1675,6 +1849,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>organicmaps</t>
     </r>
@@ -1687,6 +1863,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>name</t>
     </r>
@@ -1699,6 +1877,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Successfully repaired?</t>
     </r>
@@ -1711,6 +1891,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Note</t>
     </r>
@@ -1723,6 +1905,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>name</t>
     </r>
@@ -1735,6 +1919,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>Suc?</t>
     </r>
@@ -1746,6 +1932,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>['{</t>
     </r>
@@ -1755,6 +1943,8 @@
         <sz val="10"/>
         <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>http://schemas.android.com/apk/res/android</t>
     </r>
@@ -1763,6 +1953,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>}height', '{</t>
     </r>
@@ -1772,6 +1964,8 @@
         <sz val="10"/>
         <color rgb="FF175CEB"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>http://schemas.android.com/apk/res/android</t>
     </r>
@@ -1780,6 +1974,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>}lineSpacingExtra'] combination</t>
     </r>
@@ -1787,6 +1983,12 @@
   </si>
   <si>
     <t>drawableRightCompat can also alter the key fields</t>
+  </si>
+  <si>
+    <t>use android:drawableLeft, or use android:drawableTop</t>
+  </si>
+  <si>
+    <t>use android:drawableLeft</t>
   </si>
 </sst>
 </file>
@@ -1806,68 +2008,93 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF2972F4"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFE74025"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFDE3C36"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF175CEB"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2294,13 +2521,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
@@ -2495,7 +2722,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>19</v>
@@ -2737,7 +2964,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>19</v>
@@ -2759,7 +2986,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>19</v>
@@ -2770,7 +2997,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>19</v>
@@ -2781,7 +3008,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>19</v>
@@ -2792,7 +3019,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>19</v>
@@ -2803,7 +3030,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>19</v>
@@ -2814,7 +3041,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>19</v>
@@ -2836,7 +3063,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>19</v>
@@ -2847,7 +3074,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>19</v>
@@ -2858,7 +3085,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>19</v>
@@ -2869,7 +3096,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>19</v>
@@ -2880,7 +3107,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>19</v>
@@ -2891,7 +3118,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>19</v>
@@ -2902,7 +3129,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>19</v>
@@ -2913,7 +3140,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>19</v>
@@ -2924,7 +3151,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>19</v>
@@ -2935,7 +3162,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>19</v>
@@ -2946,7 +3173,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>19</v>
@@ -2968,7 +3195,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>19</v>
@@ -2979,7 +3206,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>19</v>
@@ -2990,7 +3217,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>19</v>
@@ -3001,7 +3228,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>19</v>
@@ -3012,7 +3239,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>19</v>
@@ -3023,7 +3250,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>19</v>
@@ -3034,7 +3261,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>19</v>
@@ -3045,7 +3272,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>19</v>
@@ -3056,7 +3283,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>19</v>
@@ -3067,7 +3294,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>19</v>
@@ -3163,7 +3390,7 @@
     </row>
     <row r="80" spans="1:3" ht="16">
       <c r="A80" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>1</v>
@@ -3834,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3852,7 +4079,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="16">
       <c r="A1" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B1" s="15">
         <v>1</v>
@@ -3875,10 +4102,10 @@
       </c>
       <c r="K1" s="15"/>
       <c r="L1" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="N1" s="9" t="s">
         <v>82</v>
@@ -6134,8 +6361,8 @@
       <c r="L38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M38" s="9" t="s">
-        <v>101</v>
+      <c r="M38" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="N38" s="12">
         <v>1</v>
@@ -6195,8 +6422,8 @@
       <c r="L39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="9" t="s">
-        <v>102</v>
+      <c r="M39" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="N39" s="9">
         <v>0</v>
@@ -6256,8 +6483,8 @@
       <c r="L40" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>101</v>
+      <c r="M40" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="N40" s="12">
         <v>1</v>
@@ -6317,8 +6544,8 @@
       <c r="L41" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>101</v>
+      <c r="M41" s="17" t="s">
+        <v>178</v>
       </c>
       <c r="N41" s="12">
         <v>1</v>
@@ -6343,7 +6570,7 @@
     </row>
     <row r="42" spans="1:31" ht="16">
       <c r="A42" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>89</v>
@@ -6379,7 +6606,7 @@
         <v>19</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N42" s="12">
         <v>1</v>
@@ -6440,7 +6667,7 @@
         <v>19</v>
       </c>
       <c r="M43" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N43" s="12">
         <v>1</v>
@@ -6501,13 +6728,13 @@
         <v>19</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N44" s="12">
         <v>0</v>
       </c>
       <c r="O44" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
@@ -6564,7 +6791,7 @@
         <v>19</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N45" s="12">
         <v>1</v>
@@ -6625,7 +6852,7 @@
         <v>19</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N46" s="12">
         <v>1</v>
@@ -6686,7 +6913,7 @@
         <v>19</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N47" s="12">
         <v>1</v>
@@ -6747,7 +6974,7 @@
         <v>19</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N48" s="12">
         <v>1</v>
@@ -6808,7 +7035,7 @@
         <v>19</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N49" s="12">
         <v>1</v>
@@ -6869,7 +7096,7 @@
         <v>19</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N50" s="12">
         <v>1</v>
@@ -6930,7 +7157,7 @@
         <v>19</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N51" s="9">
         <v>0</v>
@@ -6991,7 +7218,7 @@
         <v>19</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N52" s="9">
         <v>0</v>
@@ -7052,7 +7279,7 @@
         <v>19</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N53" s="9">
         <v>0</v>
@@ -7113,7 +7340,7 @@
         <v>19</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N54" s="12">
         <v>1</v>
@@ -7174,7 +7401,7 @@
         <v>19</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N55" s="12">
         <v>0</v>
@@ -7202,31 +7429,31 @@
         <v>5</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C56" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I56" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K56" s="9" t="s">
         <v>87</v>
@@ -7235,7 +7462,7 @@
         <v>1</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
@@ -7294,7 +7521,7 @@
         <v>19</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N57" s="12">
         <v>1</v>
@@ -7355,7 +7582,7 @@
         <v>19</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N58" s="12">
         <v>1</v>
@@ -7416,7 +7643,7 @@
         <v>19</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N59" s="12">
         <v>1</v>
@@ -7441,7 +7668,7 @@
     </row>
     <row r="60" spans="1:31" ht="16">
       <c r="A60" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>83</v>
@@ -7477,7 +7704,7 @@
         <v>19</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N60" s="12">
         <v>1</v>
@@ -7538,10 +7765,10 @@
         <v>19</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O61" s="12"/>
       <c r="P61" s="12"/>
@@ -7566,31 +7793,31 @@
         <v>27</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C62" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G62" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K62" s="9" t="s">
         <v>87</v>
@@ -7599,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
@@ -7625,31 +7852,31 @@
         <v>29</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C63" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G63" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I63" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K63" s="9" t="s">
         <v>87</v>
@@ -7658,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
@@ -7684,31 +7911,31 @@
         <v>28</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I64" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K64" s="9" t="s">
         <v>87</v>
@@ -7717,7 +7944,7 @@
         <v>1</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
@@ -7743,31 +7970,31 @@
         <v>26</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I65" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K65" s="9" t="s">
         <v>87</v>
@@ -7776,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
@@ -7802,31 +8029,31 @@
         <v>24</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C66" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G66" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I66" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K66" s="9" t="s">
         <v>87</v>
@@ -7835,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
@@ -7861,31 +8088,31 @@
         <v>23</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G67" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I67" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K67" s="9" t="s">
         <v>87</v>
@@ -7894,7 +8121,7 @@
         <v>1</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
@@ -7920,31 +8147,31 @@
         <v>25</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G68" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I68" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>87</v>
@@ -7953,7 +8180,7 @@
         <v>1</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
@@ -7979,31 +8206,31 @@
         <v>30</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G69" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K69" s="9" t="s">
         <v>87</v>
@@ -8012,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
@@ -8071,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N70" s="12"/>
       <c r="O70" s="12"/>
@@ -8130,7 +8357,7 @@
         <v>19</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N71" s="12">
         <v>1</v>
@@ -8191,7 +8418,7 @@
         <v>19</v>
       </c>
       <c r="M72" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N72" s="12">
         <v>1</v>
@@ -8252,7 +8479,7 @@
         <v>19</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N73" s="12">
         <v>1</v>
@@ -8313,7 +8540,7 @@
         <v>19</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N74" s="12">
         <v>1</v>
@@ -8374,7 +8601,7 @@
         <v>19</v>
       </c>
       <c r="M75" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N75" s="12">
         <v>1</v>
@@ -8435,7 +8662,7 @@
         <v>19</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N76" s="12">
         <v>1</v>
@@ -8496,7 +8723,7 @@
         <v>19</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N77" s="12">
         <v>1</v>
@@ -8557,7 +8784,7 @@
         <v>19</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N78" s="12">
         <v>1</v>
@@ -8618,7 +8845,7 @@
         <v>19</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N79" s="12">
         <v>1</v>
@@ -8679,7 +8906,7 @@
         <v>19</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N80" s="12">
         <v>1</v>
@@ -8707,31 +8934,31 @@
         <v>22</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G81" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I81" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K81" s="9" t="s">
         <v>87</v>
@@ -8740,7 +8967,7 @@
         <v>1</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
@@ -8763,34 +8990,34 @@
     </row>
     <row r="82" spans="1:31" ht="16">
       <c r="A82" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E82" s="9" t="s">
         <v>87</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G82" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I82" s="9" t="s">
         <v>87</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K82" s="9" t="s">
         <v>87</v>
@@ -8799,7 +9026,7 @@
         <v>1</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N82" s="12"/>
       <c r="O82" s="12"/>
@@ -8987,7 +9214,7 @@
     </row>
     <row r="88" spans="1:31" ht="16">
       <c r="A88" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B88" s="12">
         <f>336+14</f>
@@ -9222,7 +9449,7 @@
     </row>
     <row r="94" spans="1:31" ht="16">
       <c r="A94" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="12">
@@ -12719,7 +12946,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16">
       <c r="A1" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="15">
         <v>1</v>
@@ -12742,10 +12969,10 @@
       </c>
       <c r="K1" s="15"/>
       <c r="L1" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16">
@@ -12753,30 +12980,30 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16">
@@ -12784,30 +13011,30 @@
         <v>42</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16">
@@ -12815,30 +13042,30 @@
         <v>0</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16">
@@ -12846,30 +13073,30 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16">
@@ -12877,30 +13104,30 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16">
@@ -12908,30 +13135,30 @@
         <v>93</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16">
@@ -12939,30 +13166,30 @@
         <v>61</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16">
@@ -12970,30 +13197,30 @@
         <v>49</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16">
@@ -13001,30 +13228,30 @@
         <v>48</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="16">
@@ -13032,30 +13259,30 @@
         <v>51</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16">
@@ -13063,30 +13290,30 @@
         <v>50</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16">
@@ -13094,30 +13321,30 @@
         <v>70</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16">
@@ -13125,30 +13352,30 @@
         <v>43</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16">
@@ -13156,30 +13383,30 @@
         <v>44</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="16">
@@ -13187,30 +13414,30 @@
         <v>56</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16">
@@ -13218,30 +13445,30 @@
         <v>58</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16">
@@ -13249,30 +13476,30 @@
         <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16">
@@ -13280,30 +13507,30 @@
         <v>69</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16">
@@ -13311,30 +13538,30 @@
         <v>64</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16">
@@ -13342,30 +13569,30 @@
         <v>57</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16">
@@ -13373,30 +13600,30 @@
         <v>47</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16">
@@ -13404,30 +13631,30 @@
         <v>66</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16">
@@ -13435,30 +13662,30 @@
         <v>45</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16">
@@ -13466,30 +13693,30 @@
         <v>65</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16">
@@ -13497,30 +13724,30 @@
         <v>68</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16">
@@ -13528,30 +13755,30 @@
         <v>52</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16">
@@ -13559,30 +13786,30 @@
         <v>46</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16">
@@ -13590,30 +13817,30 @@
         <v>67</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16">
@@ -13621,30 +13848,30 @@
         <v>59</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16">
@@ -13652,30 +13879,30 @@
         <v>63</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16">
@@ -13683,30 +13910,30 @@
         <v>55</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16">
@@ -13714,30 +13941,30 @@
         <v>60</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16">
@@ -13745,30 +13972,30 @@
         <v>71</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16">
@@ -13776,30 +14003,30 @@
         <v>62</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16">
@@ -13807,30 +14034,30 @@
         <v>54</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="16">
@@ -13838,30 +14065,30 @@
         <v>20</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="16">
@@ -13869,30 +14096,30 @@
         <v>21</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="16">
@@ -13900,30 +14127,30 @@
         <v>16</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16">
@@ -13931,30 +14158,30 @@
         <v>14</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16">
@@ -13962,30 +14189,30 @@
         <v>15</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16">
@@ -13993,30 +14220,30 @@
         <v>17</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16">
@@ -14024,30 +14251,30 @@
         <v>18</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16">
@@ -14078,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16">
@@ -14086,30 +14313,30 @@
         <v>8</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16">
@@ -14117,30 +14344,30 @@
         <v>7</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M46" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16">
@@ -14148,30 +14375,30 @@
         <v>6</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="16">
@@ -14179,30 +14406,30 @@
         <v>10</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="16">
@@ -14210,30 +14437,30 @@
         <v>9</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M49" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16">
@@ -14241,30 +14468,30 @@
         <v>12</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16">
@@ -14311,30 +14538,30 @@
         <v>73</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16">
@@ -14381,30 +14608,30 @@
         <v>78</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16">
@@ -14451,30 +14678,30 @@
         <v>5</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16">
@@ -14505,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16">
@@ -14546,7 +14773,7 @@
         <v>19</v>
       </c>
       <c r="M58" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16">
@@ -14554,61 +14781,61 @@
         <v>11</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K59" s="9"/>
       <c r="L59" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16">
       <c r="A60" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16">
@@ -14616,30 +14843,30 @@
         <v>79</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M61" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16">
@@ -14647,30 +14874,30 @@
         <v>27</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="16">
@@ -14678,30 +14905,30 @@
         <v>29</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="16">
@@ -14709,30 +14936,30 @@
         <v>28</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G64" s="9"/>
       <c r="H64" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="16">
@@ -14740,30 +14967,30 @@
         <v>26</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16">
@@ -14771,30 +14998,30 @@
         <v>24</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16">
@@ -14802,30 +15029,30 @@
         <v>23</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16">
@@ -14833,30 +15060,30 @@
         <v>25</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G68" s="9"/>
       <c r="H68" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16">
@@ -14864,30 +15091,30 @@
         <v>30</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16">
@@ -14895,30 +15122,30 @@
         <v>80</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G70" s="9"/>
       <c r="H70" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="16">
@@ -14926,30 +15153,30 @@
         <v>33</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="16">
@@ -14957,30 +15184,30 @@
         <v>37</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="16">
@@ -14988,30 +15215,30 @@
         <v>38</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16">
@@ -15019,30 +15246,30 @@
         <v>32</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="16">
@@ -15050,30 +15277,30 @@
         <v>31</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="16">
@@ -15081,30 +15308,30 @@
         <v>35</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G76" s="9"/>
       <c r="H76" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="16">
@@ -15112,30 +15339,30 @@
         <v>36</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M77" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="16">
@@ -15143,30 +15370,30 @@
         <v>34</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E78" s="9"/>
       <c r="F78" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16">
@@ -15174,30 +15401,30 @@
         <v>39</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G79" s="9"/>
       <c r="H79" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="16">
@@ -15205,30 +15432,30 @@
         <v>40</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G80" s="9"/>
       <c r="H80" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16">
@@ -15245,7 +15472,7 @@
     </row>
     <row r="84" spans="1:3" ht="16">
       <c r="A84" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B84" s="12">
         <f>COUNTIF($B$1:$L$80,A84)</f>
@@ -15290,7 +15517,7 @@
     </row>
     <row r="88" spans="1:3" ht="16">
       <c r="A88" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B88" s="12">
         <v>4</v>
